--- a/Behavioral_clustering/Transition Matrix Example.xlsx
+++ b/Behavioral_clustering/Transition Matrix Example.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\short\Documents\GitHub\npc_playground\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CShort\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266389F-A7C0-4203-98F3-B74E71B84BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22009EEF-8C6B-4DEB-895F-E718C16BCFF8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Protected Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>To</t>
   </si>
@@ -74,18 +73,6 @@
     <t>The green count cells are editable</t>
   </si>
   <si>
-    <t>a transition counts</t>
-  </si>
-  <si>
-    <t>b transition counts</t>
-  </si>
-  <si>
-    <t>c transition counts</t>
-  </si>
-  <si>
-    <t>d transition counts</t>
-  </si>
-  <si>
     <t>Observed Conditional Probabilities</t>
   </si>
   <si>
@@ -96,16 +83,40 @@
   </si>
   <si>
     <t>% Difference Between Observed &amp; Expected</t>
+  </si>
+  <si>
+    <t># Transitions to a</t>
+  </si>
+  <si>
+    <t># Transitions to b</t>
+  </si>
+  <si>
+    <t># Transitions to c</t>
+  </si>
+  <si>
+    <t># Transitions to d</t>
+  </si>
+  <si>
+    <t>from b</t>
+  </si>
+  <si>
+    <t>from c</t>
+  </si>
+  <si>
+    <t>from d</t>
+  </si>
+  <si>
+    <t>from a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -259,37 +270,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -297,6 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -306,7 +294,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,71 +675,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7511935A-6D63-4043-84C6-FE9D29816AC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" customWidth="1"/>
-    <col min="5" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" customWidth="1"/>
+    <col min="22" max="22" width="10.625" customWidth="1"/>
+    <col min="23" max="23" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:27" ht="15">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="H1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="O1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="V1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="H1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="V1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="13"/>
+      <c r="X1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:27" ht="15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -737,9 +751,9 @@
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -751,9 +765,9 @@
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="8" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -765,9 +779,9 @@
       <c r="T2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="8" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="Y2" s="3" t="s">
@@ -780,355 +794,356 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:27" ht="28.15" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <f>$E$12/($E$12+$E$13+$E$14)</f>
         <v>0.22222222222222224</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="7">
         <f>$E$13/($E$12+$E$13+$E$14)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="7">
         <f>$E$14/($E$12+$E$13+$E$14)</f>
         <v>0.44444444444444448</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <f>H12/$H$15</f>
         <v>0.3</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="7">
         <f>H13/$H$15</f>
         <v>0.3</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="7">
         <f>H14/$H$15</f>
         <v>0.4</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="7">
         <f>J3-C3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="7">
         <f t="shared" ref="R3:T3" si="0">K3-D3</f>
         <v>7.7777777777777751E-2</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="7">
         <f t="shared" si="0"/>
         <v>-3.3333333333333326E-2</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="7">
         <f t="shared" si="0"/>
         <v>-4.4444444444444453E-2</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22">
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11">
         <f t="shared" ref="Y3" si="1">(R3/D3)*100</f>
         <v>34.999999999999986</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="11">
         <f t="shared" ref="Z3" si="2">(S3/E3)*100</f>
         <v>-9.9999999999999982</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="11">
         <f t="shared" ref="AA3" si="3">(T3/F3)*100</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:27" ht="15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="7">
         <f>$E$11/($E$11+$E$13+$E$14)</f>
         <v>0.125</v>
       </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <f>$E$13/($E$11+$E$13+$E$14)</f>
         <v>0.37499999999999994</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="7">
         <f>$E$14/($E$11+$E$13+$E$14)</f>
         <v>0.5</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="7">
         <f>J11/$J$15</f>
         <v>0.25</v>
       </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
         <f>J13/$J$15</f>
         <v>0.25</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="7">
         <f>J14/$J$15</f>
         <v>0.5</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="7">
         <f t="shared" ref="Q4:Q6" si="4">J4-C4</f>
         <v>0.125</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="7">
         <f t="shared" ref="R4:R6" si="5">K4-D4</f>
         <v>0</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="7">
         <f t="shared" ref="S4:S6" si="6">L4-E4</f>
         <v>-0.12499999999999994</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="7">
         <f t="shared" ref="T4:T6" si="7">M4-F4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="19"/>
+      <c r="W4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="22">
+      <c r="X4" s="11">
         <f>(Q4/C4)*100</f>
         <v>100</v>
       </c>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22">
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11">
         <f t="shared" ref="Y4:AA6" si="8">(S4/E4)*100</f>
         <v>-33.333333333333329</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA4" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:27" ht="15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="7">
         <f>$E$11/($E$11+$E$12+$E$14)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="7">
         <f>$E$12/($E$11+$E$12+$E$14)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <f>$E$14/($E$11+$E$12+$E$14)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="7">
         <f>L11/$L$15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="7">
         <f>L12/$L$15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
         <f>L14/$L$15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6" t="s">
+      <c r="O5" s="19"/>
+      <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="7">
         <f t="shared" si="4"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="7">
         <f t="shared" si="5"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="7">
         <f t="shared" si="7"/>
         <v>-0.23809523809523808</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="6" t="s">
+      <c r="V5" s="19"/>
+      <c r="W5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="11">
         <f t="shared" ref="X5:X6" si="9">(Q5/C5)*100</f>
         <v>133.33333333333331</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="11">
         <f t="shared" si="8"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22">
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11">
         <f t="shared" si="8"/>
         <v>-41.666666666666671</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:27" ht="15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="7">
         <f>$E$11/($E$11+$E$12+$E$13)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="7">
         <f>$E$12/($E$11+$E$12+$E$13)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="7">
         <f>$E$13/($E$11+$E$12+$E$13)</f>
         <v>0.49999999999999989</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6" t="s">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="7">
         <f>N11/$N$15</f>
         <v>0.5</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="7">
         <f>N12/$N$15</f>
         <v>0.25</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="7">
         <f>N13/$N$15</f>
         <v>0.25</v>
       </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="7">
         <f t="shared" si="4"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="7">
         <f t="shared" si="5"/>
         <v>-8.3333333333333315E-2</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="7">
         <f t="shared" si="6"/>
         <v>-0.24999999999999989</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="6" t="s">
+      <c r="V6" s="19"/>
+      <c r="W6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="11">
         <f t="shared" si="9"/>
         <v>200.00000000000006</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="11">
         <f t="shared" si="8"/>
         <v>-24.999999999999993</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="11">
         <f t="shared" si="8"/>
         <v>-49.999999999999986</v>
       </c>
-      <c r="AA6" s="22"/>
+      <c r="AA6" s="11"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="10">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1141,29 +1156,29 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="17">
+        <v>23</v>
+      </c>
+      <c r="J11" s="9">
         <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="17">
+        <v>23</v>
+      </c>
+      <c r="L11" s="9">
         <v>10</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="18">
+        <v>23</v>
+      </c>
+      <c r="N11" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="10">
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1174,31 +1189,31 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="17">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9">
         <v>3</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="17">
+        <v>20</v>
+      </c>
+      <c r="L12" s="9">
         <v>10</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="18">
+        <v>20</v>
+      </c>
+      <c r="N12" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="10">
         <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1209,31 +1224,31 @@
         <v>0.3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="17">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9">
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="17">
+        <v>21</v>
+      </c>
+      <c r="J13" s="9">
         <v>5</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="16"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="18">
+        <v>21</v>
+      </c>
+      <c r="N13" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="10">
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1244,26 +1259,26 @@
         <v>0.4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="17">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9">
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="17">
+        <v>22</v>
+      </c>
+      <c r="J14" s="9">
         <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="17">
+        <v>22</v>
+      </c>
+      <c r="L14" s="9">
         <v>10</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1291,9 +1306,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15">
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" t="str">
         <f>IF(H15=B11,"Yes","No")</f>
@@ -1312,7 +1327,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,19 +1337,23 @@
   <protectedRanges>
     <protectedRange sqref="B11:B14" name="Input Counts"/>
   </protectedRanges>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="H3:H6"/>
     <mergeCell ref="O1:P2"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="O3:O6"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="V3:V6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="H3:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:F6">
     <cfRule type="colorScale" priority="6">
@@ -1393,5 +1412,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>